--- a/data/trans_orig/P36S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A95F69-2DF2-45D0-86FF-054DD1D69D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27D3D47-C072-4E70-9D13-D6274561E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B903EAC-5F33-418E-839B-F35935C1F427}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E15254-8E03-4399-97E9-432CB7220571}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="239">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -109,49 +109,49 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>42,77%</t>
+    <t>40,09%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>39,89%</t>
+    <t>40,29%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>53,3%</t>
+    <t>57,78%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>60,11%</t>
+    <t>59,71%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>31,98%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -160,7 +160,7 @@
     <t>3,15%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -193,16 +193,16 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>32,81%</t>
@@ -211,16 +211,16 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>37,67%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -232,136 +232,136 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2012 (Tasa respuesta: 0,49%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
     <t>54,35%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2012 (Tasa respuesta: 0,49%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>93,95%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -376,49 +376,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -433,7 +433,7 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>53,96%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -442,16 +442,13 @@
     <t>75,48%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>50,49%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>47,62%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -460,10 +457,7 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>49,51%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -475,55 +469,55 @@
     <t>30,22%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>86,61%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -535,55 +529,55 @@
     <t>44,03%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -595,49 +589,49 @@
     <t>41,72%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>80,19%</t>
+    <t>80,16%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>19,81%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>59,38%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -646,55 +640,55 @@
     <t>41,75%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>62,79%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -703,55 +697,55 @@
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1172,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A7FE2E-403D-461D-ABB1-B35E033EECC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A258B6-A93D-4A63-9DC2-0765F05ADF6E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F7836-6337-42C4-9290-FE9F4A2CC8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4557E562-437D-4DCB-B824-3C482FC804E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3846,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C53F80-EAAE-422C-BA10-74B3132C7681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B970D5F-6B4A-423A-AFE5-7E05BFB402BD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4006,7 +4000,7 @@
         <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4015,13 @@
         <v>1895</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4036,7 +4030,7 @@
         <v>1791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>18</v>
@@ -4051,13 +4045,13 @@
         <v>3686</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4072,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4108,7 +4102,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4170,13 @@
         <v>5344</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4191,13 +4185,13 @@
         <v>2923</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4206,13 +4200,13 @@
         <v>8266</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4221,13 @@
         <v>12340</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4242,13 +4236,13 @@
         <v>9783</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4257,13 +4251,13 @@
         <v>22123</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4278,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4314,7 +4308,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4376,13 @@
         <v>12637</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4397,13 +4391,13 @@
         <v>6056</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -4412,13 +4406,13 @@
         <v>18693</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4427,13 @@
         <v>16061</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4448,13 +4442,13 @@
         <v>7527</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4463,13 +4457,13 @@
         <v>23588</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4484,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4520,7 +4514,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4582,13 @@
         <v>2966</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4603,13 +4597,13 @@
         <v>1871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4618,13 +4612,13 @@
         <v>4836</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4633,13 @@
         <v>4143</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4654,10 +4648,10 @@
         <v>2927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
@@ -4669,13 +4663,13 @@
         <v>7071</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4720,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4788,13 @@
         <v>7429</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4809,13 +4803,13 @@
         <v>3035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4824,13 +4818,13 @@
         <v>10464</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4839,13 @@
         <v>10366</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -4860,13 +4854,13 @@
         <v>7292</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -4875,13 +4869,13 @@
         <v>17657</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4896,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4932,7 +4926,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4994,13 @@
         <v>37896</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5015,13 +5009,13 @@
         <v>15708</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -5030,13 +5024,13 @@
         <v>53605</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5045,13 @@
         <v>44805</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5066,13 +5060,13 @@
         <v>29321</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -5081,13 +5075,13 @@
         <v>74125</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,37 +5102,37 @@
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27D3D47-C072-4E70-9D13-D6274561E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8903EE-C39F-45B9-A857-C304B6A54AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E15254-8E03-4399-97E9-432CB7220571}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC8761B5-A1A0-4A99-A109-9CACF5D0058D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="241">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro tipo de alimentos</t>
@@ -82,7 +82,7 @@
     <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,55 +103,55 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>40,09%</t>
+    <t>42,83%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>40,29%</t>
+    <t>38,71%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>57,65%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>59,71%</t>
+    <t>61,29%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>31,98%</t>
+    <t>26,25%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -160,10 +160,10 @@
     <t>3,15%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -193,16 +193,16 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>66,41%</t>
+    <t>57,88%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>32,81%</t>
@@ -211,16 +211,16 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>33,59%</t>
+    <t>42,12%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -232,61 +232,61 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>24,41%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -295,7 +295,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -319,49 +319,49 @@
     <t>11,63%</t>
   </si>
   <si>
-    <t>49,09%</t>
+    <t>48,63%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>50,91%</t>
+    <t>51,37%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -376,49 +376,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>27,19%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>72,81%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -427,13 +427,13 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2015 (Tasa respuesta: 1,86%)</t>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2016 (Tasa respuesta: 1,86%)</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>53,96%</t>
+    <t>55,83%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -442,13 +442,16 @@
     <t>75,48%</t>
   </si>
   <si>
-    <t>50,49%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>46,04%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -457,7 +460,10 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>49,51%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -469,10 +475,10 @@
     <t>30,22%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>23,0%</t>
@@ -481,31 +487,31 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>53,43%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>69,78%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>77,0%</t>
   </si>
   <si>
-    <t>45,81%</t>
+    <t>46,57%</t>
   </si>
   <si>
     <t>92,63%</t>
@@ -514,10 +520,10 @@
     <t>72,8%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -529,55 +535,55 @@
     <t>44,03%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -589,49 +595,49 @@
     <t>41,72%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>58,28%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>59,38%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -640,55 +646,55 @@
     <t>41,75%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
   </si>
   <si>
     <t>70,61%</t>
   </si>
   <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>62,79%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -697,55 +703,55 @@
     <t>45,82%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1166,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A258B6-A93D-4A63-9DC2-0765F05ADF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A870D918-EC5F-4ADB-8A65-E5514F3DE82F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2503,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4557E562-437D-4DCB-B824-3C482FC804E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62572D8D-5A15-42E2-B401-DD619A8330AE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3840,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B970D5F-6B4A-423A-AFE5-7E05BFB402BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C671F04-2DCA-411C-A2C3-41D01509E622}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,7 +4006,7 @@
         <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4021,13 @@
         <v>1895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4030,7 +4036,7 @@
         <v>1791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>18</v>
@@ -4045,13 +4051,13 @@
         <v>3686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4078,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4102,7 +4108,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4176,13 @@
         <v>5344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4185,13 +4191,13 @@
         <v>2923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4200,13 +4206,13 @@
         <v>8266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4227,13 @@
         <v>12340</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4236,13 +4242,13 @@
         <v>9783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4251,13 +4257,13 @@
         <v>22123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4284,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4308,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4382,13 @@
         <v>12637</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4391,13 +4397,13 @@
         <v>6056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -4406,13 +4412,13 @@
         <v>18693</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4433,13 @@
         <v>16061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4442,13 +4448,13 @@
         <v>7527</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4457,13 +4463,13 @@
         <v>23588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4490,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4514,7 +4520,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4588,13 @@
         <v>2966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4597,13 +4603,13 @@
         <v>1871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4612,13 +4618,13 @@
         <v>4836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4639,13 @@
         <v>4143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4648,10 +4654,10 @@
         <v>2927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>15</v>
@@ -4663,13 +4669,13 @@
         <v>7071</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4726,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4794,13 @@
         <v>7429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4803,13 +4809,13 @@
         <v>3035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4818,13 +4824,13 @@
         <v>10464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4845,13 @@
         <v>10366</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -4854,13 +4860,13 @@
         <v>7292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -4869,13 +4875,13 @@
         <v>17657</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4902,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4926,7 +4932,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5000,13 @@
         <v>37896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5009,13 +5015,13 @@
         <v>15708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -5024,13 +5030,13 @@
         <v>53605</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5051,13 @@
         <v>44805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -5060,13 +5066,13 @@
         <v>29321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -5075,13 +5081,13 @@
         <v>74125</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5108,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5117,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5132,7 +5138,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
